--- a/Modélisation/3.Dictionnaire de données/Dictionnaire de données.xlsx
+++ b/Modélisation/3.Dictionnaire de données/Dictionnaire de données.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="متدرب" sheetId="1" r:id="rId1"/>
-    <sheet name="مستوى الدراسي" sheetId="2" r:id="rId2"/>
-    <sheet name="البطولات" sheetId="7" r:id="rId3"/>
-    <sheet name="تأدية الشهر" sheetId="10" r:id="rId4"/>
-    <sheet name="صنف البطولة" sheetId="8" r:id="rId5"/>
-    <sheet name="رتبة البطولة" sheetId="9" r:id="rId6"/>
-    <sheet name="الفئة العمرية" sheetId="6" r:id="rId7"/>
-    <sheet name="حزام" sheetId="5" r:id="rId8"/>
-    <sheet name="إمتحان الحزام" sheetId="11" r:id="rId9"/>
-    <sheet name="Params" sheetId="4" r:id="rId10"/>
-    <sheet name="Assurance" sheetId="12" r:id="rId11"/>
+    <sheet name="متدرب-Trainee" sheetId="1" r:id="rId1"/>
+    <sheet name="البطولات" sheetId="7" r:id="rId2"/>
+    <sheet name="تأدية الشهر" sheetId="10" r:id="rId3"/>
+    <sheet name="حزام" sheetId="5" r:id="rId4"/>
+    <sheet name="إمتحان الحزام" sheetId="11" r:id="rId5"/>
+    <sheet name="التامينات" sheetId="12" r:id="rId6"/>
+    <sheet name="المداخيل" sheetId="13" r:id="rId7"/>
+    <sheet name="المصاريف" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>Anglais</t>
   </si>
@@ -71,30 +68,12 @@
     <t>المستوى الدراسي</t>
   </si>
   <si>
-    <t>المستويات الدراسية</t>
-  </si>
-  <si>
     <t>Relation</t>
   </si>
   <si>
     <t>ManyToOne</t>
   </si>
   <si>
-    <t>ManyToMany_Creation</t>
-  </si>
-  <si>
-    <t>ManyToMany_Affectation</t>
-  </si>
-  <si>
-    <t>Relations</t>
-  </si>
-  <si>
-    <t>إسم المستوى الدراسي</t>
-  </si>
-  <si>
-    <t>معلومات أخرى عن المستوى الدراسي</t>
-  </si>
-  <si>
     <t>حزام</t>
   </si>
   <si>
@@ -125,27 +104,6 @@
     <t>الصنف العمري</t>
   </si>
   <si>
-    <t>إسم الصنف</t>
-  </si>
-  <si>
-    <t>أكبر سنة</t>
-  </si>
-  <si>
-    <t>أصغر سنة</t>
-  </si>
-  <si>
-    <t>صغار</t>
-  </si>
-  <si>
-    <t>فتيان</t>
-  </si>
-  <si>
-    <t>شباب</t>
-  </si>
-  <si>
-    <t>كبار</t>
-  </si>
-  <si>
     <t>Mapping</t>
   </si>
   <si>
@@ -191,51 +149,6 @@
     <t>ReadOnly</t>
   </si>
   <si>
-    <t>أصناف البطولة</t>
-  </si>
-  <si>
-    <t>إسم صنف البطولة</t>
-  </si>
-  <si>
-    <t>محلي</t>
-  </si>
-  <si>
-    <t>جهوي</t>
-  </si>
-  <si>
-    <t>وطني</t>
-  </si>
-  <si>
-    <t>دولي</t>
-  </si>
-  <si>
-    <t>رتبة البطولة</t>
-  </si>
-  <si>
-    <t>رتب البطولة</t>
-  </si>
-  <si>
-    <t>إسم رتبة البطولة</t>
-  </si>
-  <si>
-    <t>LocalizableData</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>شرح إضافي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ذهبيى </t>
-  </si>
-  <si>
-    <t>فضية</t>
-  </si>
-  <si>
-    <t>نحاسية</t>
-  </si>
-  <si>
     <t>الرتبة</t>
   </si>
   <si>
@@ -248,12 +161,6 @@
     <t>ManyToOne  الصنف العمري</t>
   </si>
   <si>
-    <t>الفئة العمرية</t>
-  </si>
-  <si>
-    <t>الفئات العمرية</t>
-  </si>
-  <si>
     <t>Paiement</t>
   </si>
   <si>
@@ -302,9 +209,6 @@
     <t>Trainees</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -378,9 +282,6 @@
   </si>
   <si>
     <t>n'est pas saisie</t>
-  </si>
-  <si>
-    <t>Educations Levels</t>
   </si>
 </sst>
 </file>
@@ -431,27 +332,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,40 +398,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -556,95 +432,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -744,33 +532,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:D25" totalsRowShown="0">
+  <autoFilter ref="A1:D25"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Anglais"/>
     <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="14"/>
+    <tableColumn id="4" name="Arabe" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Code"/>
-    <tableColumn id="2" name="Anglais"/>
-    <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -782,8 +557,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A1:D6" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A1:D6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -795,46 +570,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="A1:D4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:D4"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Code"/>
-    <tableColumn id="2" name="Anglais"/>
-    <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="A4:D8" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A4:D8"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Code"/>
-    <tableColumn id="2" name="Anglais"/>
-    <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Code"/>
-    <tableColumn id="2" name="Anglais"/>
-    <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A1:D6" totalsRowShown="0">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
@@ -844,16 +580,6 @@
     <tableColumn id="4" name="Arabe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableauRelations" displayName="TableauRelations" ref="A1:A5" totalsRowShown="0">
-  <autoFilter ref="A1:A5"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Relations"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -900,7 +626,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,7 +661,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1146,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,16 +900,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -1202,18 +928,18 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1221,10 +947,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1232,10 +958,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1243,10 +969,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1254,137 +980,137 @@
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="20"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1392,10 +1118,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1403,10 +1129,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -1414,178 +1140,148 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>117</v>
+        <v>26</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G2 E11:G11 E25:F25">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:G14">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Params!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:G2 E11:G11 E25:F25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Params!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E14:G14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1598,127 +1294,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1732,51 +1307,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>78</v>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>79</v>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,287 +1367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="2">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
-        <v>120</v>
-      </c>
-      <c r="G4" s="2">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2105,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,28 +1408,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2146,7 +1441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2160,55 +1455,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>86</v>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>87</v>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Modélisation/3.Dictionnaire de données/Dictionnaire de données.xlsx
+++ b/Modélisation/3.Dictionnaire de données/Dictionnaire de données.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="664" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="متدرب-Trainee" sheetId="1" r:id="rId1"/>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,13 +1372,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,12 +1447,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/Modélisation/3.Dictionnaire de données/Dictionnaire de données.xlsx
+++ b/Modélisation/3.Dictionnaire de données/Dictionnaire de données.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="664" activeTab="7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="140">
   <si>
     <t>Anglais</t>
   </si>
@@ -176,12 +176,6 @@
     <t>الثمن</t>
   </si>
   <si>
-    <t>إسم الخزام</t>
-  </si>
-  <si>
-    <t>زصف الحزام</t>
-  </si>
-  <si>
     <t>درجة الحزام</t>
   </si>
   <si>
@@ -282,6 +276,177 @@
   </si>
   <si>
     <t>n'est pas saisie</t>
+  </si>
+  <si>
+    <t>SingularName</t>
+  </si>
+  <si>
+    <t>PluralName</t>
+  </si>
+  <si>
+    <t>البطولة</t>
+  </si>
+  <si>
+    <t>championnat</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>tournois</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>اسم</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DateTournament</t>
+  </si>
+  <si>
+    <t>Date Tournament</t>
+  </si>
+  <si>
+    <t>Date tournois</t>
+  </si>
+  <si>
+    <t>تاريخ البطولة</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date
+</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>trainee</t>
+  </si>
+  <si>
+    <t>stagiaire</t>
+  </si>
+  <si>
+    <t>ceinture</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>ceintures</t>
+  </si>
+  <si>
+    <t>إسم الحزام</t>
+  </si>
+  <si>
+    <t>وصف الحزام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DegreeBelt
+</t>
+  </si>
+  <si>
+    <t>Ceinture Degré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree Belt
+</t>
+  </si>
+  <si>
+    <t>ceinture examen</t>
+  </si>
+  <si>
+    <t>ceintures examens</t>
+  </si>
+  <si>
+    <t>Belt Exam</t>
+  </si>
+  <si>
+    <t>Belts Exams</t>
+  </si>
+  <si>
+    <t>Ceinture</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>assurance</t>
+  </si>
+  <si>
+    <t>التامين</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>تأمينات</t>
+  </si>
+  <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>المدخول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenu
+</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>المداخيل</t>
+  </si>
+  <si>
+    <t>Revenus</t>
+  </si>
+  <si>
+    <t>Incomes</t>
+  </si>
+  <si>
+    <t>الصنف</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catégorie
+</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>المصروف</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>المصاريف</t>
+  </si>
+  <si>
+    <t>Dépenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépens
+</t>
   </si>
 </sst>
 </file>
@@ -332,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -394,11 +559,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,11 +645,73 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -538,14 +817,14 @@
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Anglais"/>
     <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="6"/>
+    <tableColumn id="4" name="Arabe" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -558,7 +837,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A1:D6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau62" displayName="Tableau62" ref="A22:D26" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A22:D26"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Anglais"/>
+    <tableColumn id="3" name="Français"/>
+    <tableColumn id="4" name="Arabe"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -570,7 +862,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A1:D6" totalsRowShown="0">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
@@ -626,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,7 +953,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,17 +1165,17 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="37.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -914,10 +1206,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -925,21 +1217,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -947,10 +1239,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -958,10 +1250,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -969,10 +1261,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -980,10 +1272,10 @@
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -994,10 +1286,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -1005,10 +1297,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -1016,10 +1308,10 @@
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>23</v>
@@ -1031,10 +1323,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -1042,10 +1334,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1059,10 +1351,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
@@ -1076,10 +1368,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -1093,24 +1385,24 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1118,10 +1410,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1129,10 +1421,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -1140,19 +1432,19 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1174,17 +1466,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1284,11 +1576,92 @@
         <v>45</v>
       </c>
     </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1298,12 +1671,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1322,9 +1695,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1334,9 +1709,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>47</v>
       </c>
@@ -1344,17 +1721,44 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1372,14 +1776,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1802,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -1406,31 +1816,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1447,13 +1884,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1472,37 +1909,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1512,40 +1984,185 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>